--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2730345.029478649</v>
+        <v>2726039.313102577</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>156.7102221384126</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>34.82584874159637</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>223.82438355203</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>128.7835007017901</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>395.3790767497776</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>34.82578117144479</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.24424573300379</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.24971936873302</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>164.2301828023657</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>28.23160014171698</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>212.5069157130931</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>203.7149736865403</v>
+        <v>96.99837838564402</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>284.6097219897206</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>11.76284745948112</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>112.7606860319987</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>114.7205611007764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>185.4048731212365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>30.97191586387646</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>26.07046444232026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>70.0455488112438</v>
       </c>
       <c r="U34" t="n">
-        <v>60.32297266393831</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>3.006892987835467</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>177.9413471369465</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>186.9166231085223</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>150.672680124696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>118.4817021252624</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1919.063478780785</v>
+        <v>730.9133108563931</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.100961840373</v>
+        <v>730.9133108563931</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>372.6476122496426</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>372.6476122496426</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>365.7021115004391</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2661.971466026711</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2661.971466026711</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2661.971466026711</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2309.202810756597</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>2309.202810756597</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1919.063478780785</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4518,19 +4518,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.9219833362306</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C5" t="n">
-        <v>940.9219833362306</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>940.9219833362306</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>940.9219833362306</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>933.9764825870271</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2606.942844809882</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2353.181059447974</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2353.181059447974</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418.6523285934728</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>673.3368167993597</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>673.3368167993597</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>418.6523285934728</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>418.6523285934728</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>418.6523285934728</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>418.6523285934728</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.763590178429</v>
+        <v>1186.952328438143</v>
       </c>
       <c r="C8" t="n">
-        <v>1745.763590178429</v>
+        <v>817.9898114977311</v>
       </c>
       <c r="D8" t="n">
-        <v>1387.497891571678</v>
+        <v>459.7241128909807</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>649.4448552616556</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
         <v>1281.162666244967</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2316.460155748191</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.93405351505</v>
+        <v>2316.460155748191</v>
       </c>
       <c r="W8" t="n">
-        <v>2540.93405351505</v>
+        <v>1963.691500478076</v>
       </c>
       <c r="X8" t="n">
-        <v>2167.468295253971</v>
+        <v>1963.691500478076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1777.328963278159</v>
+        <v>1573.552168502265</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>744.5715932067358</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1385.11694267384</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.072212679962</v>
+        <v>379.4663365505266</v>
       </c>
       <c r="C10" t="n">
-        <v>226.072212679962</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>226.072212679962</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>226.072212679962</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>708.7462517838662</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>708.7462517838662</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="V10" t="n">
-        <v>454.0617635779793</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="W10" t="n">
-        <v>454.0617635779793</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="X10" t="n">
-        <v>226.072212679962</v>
+        <v>600.2589156940568</v>
       </c>
       <c r="Y10" t="n">
-        <v>226.072212679962</v>
+        <v>379.4663365505266</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960133</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681064</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557706</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557706</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.206432226253</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5366,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3195.647281583948</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>3026.711098656041</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>2876.594459243706</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E16" t="n">
-        <v>2728.681365661313</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F16" t="n">
-        <v>2728.681365661313</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G16" t="n">
-        <v>2561.485266376193</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="H16" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>3933.846581662457</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>3933.846581662457</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>3644.429411625496</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>3416.439860727478</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>3195.647281583948</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5606,16 +5606,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>962.6357307816191</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>793.6995478537123</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>643.5829084413765</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.284195611859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1433.359422267661</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1212.566843124131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,25 +5980,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3112.537432147379</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>2943.601249219472</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>2793.484609807137</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>2793.484609807137</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4574.953797751345</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4355.352332774286</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>4066.277106118484</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3811.592617912597</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>3522.175447875637</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>3294.185896977619</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>3294.185896977619</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,70 +6360,70 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1688.385853854707</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
         <v>1501.108204237296</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,55 +6597,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6657,16 +6657,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>809.0422355233313</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C34" t="n">
-        <v>640.1060525954244</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U34" t="n">
-        <v>1983.574488637966</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V34" t="n">
-        <v>1728.890000432079</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W34" t="n">
-        <v>1439.472830395119</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.483279497101</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.6907003535711</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>2655.833190378096</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2507.920096795703</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2507.920096795703</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2340.723997510583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7192,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1797.722346028744</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1797.722346028744</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,13 +7426,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1653.302830625878</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.167399417937</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>593.6115863900017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>443.4949469776659</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>295.5818533952728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>295.5818533952728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>295.5818533952728</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>31.78975210768598</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>56.94306717106267</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.86967966555451</v>
+        <v>121.5862749664508</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>45.99097492814199</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.574752399523561</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>134.671115187088</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.07129414993855</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>66.30572490086821</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>40.30478226780068</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>115.4620467826927</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>147.3599015160445</v>
       </c>
       <c r="U34" t="n">
-        <v>225.8615017253058</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>137.2878198583884</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>99.26785128072183</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>75.03697526434118</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>21.81301072096153</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771668.8214256046</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771668.8214256046</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771668.8214256046</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.415891427</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="I2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520052</v>
@@ -26355,7 +26355,7 @@
         <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808062</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682727</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225915.9568495606</v>
+        <v>-225915.9568495602</v>
       </c>
       <c r="C6" t="n">
-        <v>364051.9223649838</v>
+        <v>364051.9223649837</v>
       </c>
       <c r="D6" t="n">
-        <v>208248.116271189</v>
+        <v>208248.1162711892</v>
       </c>
       <c r="E6" t="n">
-        <v>-232135.4780193911</v>
+        <v>-232482.8572737484</v>
       </c>
       <c r="F6" t="n">
-        <v>538917.213361415</v>
+        <v>538569.8341070584</v>
       </c>
       <c r="G6" t="n">
-        <v>538917.2133614153</v>
+        <v>538569.834107058</v>
       </c>
       <c r="H6" t="n">
-        <v>538917.2133614154</v>
+        <v>538569.8341070584</v>
       </c>
       <c r="I6" t="n">
-        <v>538917.2133614154</v>
+        <v>538569.8341070581</v>
       </c>
       <c r="J6" t="n">
-        <v>362493.9941688224</v>
+        <v>362146.6149144648</v>
       </c>
       <c r="K6" t="n">
-        <v>538917.2133614152</v>
+        <v>538569.8341070581</v>
       </c>
       <c r="L6" t="n">
-        <v>538917.2133614154</v>
+        <v>538569.8341070585</v>
       </c>
       <c r="M6" t="n">
-        <v>414708.7026533568</v>
+        <v>414361.3233989998</v>
       </c>
       <c r="N6" t="n">
-        <v>538917.2133614152</v>
+        <v>538569.8341070582</v>
       </c>
       <c r="O6" t="n">
-        <v>538917.2133614153</v>
+        <v>538569.8341070585</v>
       </c>
       <c r="P6" t="n">
-        <v>538917.2133614153</v>
+        <v>538569.834107058</v>
       </c>
     </row>
   </sheetData>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>257.0739478823824</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>181.6224716160614</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.885271837007167</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>89.80115265030472</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.40509327101739</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>181.622539186213</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>170.7908597250805</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>351.4841222947476</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>86.92460341993495</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>139.0152209569109</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>10.86598900766558</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>501.1621040024322</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328822</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>726.7533607666132</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.118592441407</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>346.7710205055867</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,13 +34941,13 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>172.5257681089518</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35254,16 +35254,16 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>257.6064425777947</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>369.8203919190989</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>191.3582339884378</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>584.6193268445949</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>206.7892464195652</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2726039.313102577</v>
+        <v>2727799.843405362</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>156.7102221384126</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>97.6090937383009</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.032773951870699</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>34.82578117144479</v>
+        <v>65.24532081664537</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>30.54110646053108</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>405.778764254058</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>164.2301828023657</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>28.23160014171698</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>163.6333765063158</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.99837838564402</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>94.30373791808189</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>103.1686991936193</v>
+        <v>125.8152577453158</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899569</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>30.97191586387646</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>70.0455488112438</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
-        <v>186.9166231085223</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730.9133108563931</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>730.9133108563931</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>372.6476122496426</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>372.6476122496426</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>365.7021115004391</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2367.347869682784</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2113.586084320875</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1782.523196977305</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1782.523196977305</v>
       </c>
       <c r="X2" t="n">
-        <v>1507.652482896327</v>
+        <v>1409.057438716225</v>
       </c>
       <c r="Y2" t="n">
-        <v>1117.513150920515</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="3">
@@ -4421,19 +4421,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>578.9391196286279</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>578.9391196286279</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>578.9391196286279</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>578.9391196286279</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2606.942844809882</v>
+        <v>2576.216037087458</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.181059447974</v>
+        <v>2322.454251725549</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.181059447974</v>
+        <v>2322.454251725549</v>
       </c>
       <c r="W5" t="n">
-        <v>2000.41240417786</v>
+        <v>1969.685596455435</v>
       </c>
       <c r="X5" t="n">
-        <v>1626.94664591678</v>
+        <v>1596.219838194355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.94664591678</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
         <v>667.8624625746712</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1186.952328438143</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C8" t="n">
-        <v>817.9898114977311</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="D8" t="n">
-        <v>459.7241128909807</v>
+        <v>1578.81779408627</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>1193.029541488026</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>782.0436366984186</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,13 +4807,13 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>464.4746912499463</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2316.460155748191</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2316.460155748191</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1963.691500478076</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1963.691500478076</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1573.552168502265</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1934.002090843955</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2483.438099596678</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>379.4663365505266</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
@@ -4992,22 +4992,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>600.2589156940568</v>
+        <v>888.5914243844406</v>
       </c>
       <c r="Y10" t="n">
-        <v>379.4663365505266</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.6680198981028</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>467.7318369701959</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>818.3164847283425</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,10 +5296,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>189.0729639753273</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>189.0729639753273</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5594,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,25 +6004,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6408,13 +6408,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
         <v>2273.199413378161</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876693</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>580.8993044876693</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7736,10 +7736,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8455,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>199.0051585876254</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>21.63976862165688</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>45.99097492814199</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>62.35543909864957</v>
+        <v>39.70888054695307</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24657,7 +24657,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992872</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>115.4620467826927</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>147.3599015160445</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
-        <v>99.26785128072183</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256046</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26435,28 +26435,28 @@
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682784</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682809</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682798</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225915.9568495602</v>
+        <v>-225915.9568495608</v>
       </c>
       <c r="C6" t="n">
-        <v>364051.9223649837</v>
+        <v>364051.9223649838</v>
       </c>
       <c r="D6" t="n">
-        <v>208248.1162711892</v>
+        <v>208248.1162711888</v>
       </c>
       <c r="E6" t="n">
-        <v>-232482.8572737484</v>
+        <v>-232170.2159448272</v>
       </c>
       <c r="F6" t="n">
-        <v>538569.8341070584</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="G6" t="n">
-        <v>538569.834107058</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="H6" t="n">
-        <v>538569.8341070584</v>
+        <v>538882.4754359797</v>
       </c>
       <c r="I6" t="n">
-        <v>538569.8341070581</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="J6" t="n">
-        <v>362146.6149144648</v>
+        <v>362459.2562433864</v>
       </c>
       <c r="K6" t="n">
-        <v>538569.8341070581</v>
+        <v>538882.4754359793</v>
       </c>
       <c r="L6" t="n">
-        <v>538569.8341070585</v>
+        <v>538882.4754359794</v>
       </c>
       <c r="M6" t="n">
-        <v>414361.3233989998</v>
+        <v>414673.964727921</v>
       </c>
       <c r="N6" t="n">
-        <v>538569.8341070582</v>
+        <v>538882.4754359797</v>
       </c>
       <c r="O6" t="n">
-        <v>538569.8341070585</v>
+        <v>538882.4754359792</v>
       </c>
       <c r="P6" t="n">
-        <v>538569.834107058</v>
+        <v>538882.4754359797</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>257.0739478823824</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>118.8392266193569</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>224.0023315062136</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.80115265030472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,7 +27669,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>181.622539186213</v>
+        <v>151.2029995410124</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>136.7057146380968</v>
+        <v>136.7057146380965</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>7.138139691878791</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27906,22 +27906,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>86.92460341993495</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>139.0152209569109</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>62.07627888272131</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>400.5469039565762</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>163.572382128305</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35175,16 +35175,16 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>387.5904240678352</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>131.427271174484</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>257.9506595121318</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
